--- a/app/webroot/excel/kaikake.xlsx
+++ b/app/webroot/excel/kaikake.xlsx
@@ -115,7 +115,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -148,11 +148,6 @@
     </font>
     <font>
       <sz val="15"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐ明朝"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐ明朝"/>
     </font>
@@ -736,16 +731,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -757,25 +752,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -790,16 +785,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -820,16 +815,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -859,10 +854,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -877,13 +872,13 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -892,7 +887,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -901,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="9" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="8" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1084,9 +1079,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1166,7 +1161,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1194,10 +1189,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1453,9 +1448,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1743,7 +1738,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1771,10 +1766,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2028,7 +2023,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3049,7 +3044,7 @@
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" s="5"/>
-      <c r="B61" s="30"/>
+      <c r="B61" s="41"/>
       <c r="C61" s="31"/>
       <c r="D61" s="59"/>
       <c r="E61" s="33"/>
@@ -3064,7 +3059,7 @@
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" s="5"/>
-      <c r="B62" s="30"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="31"/>
       <c r="D62" s="59"/>
       <c r="E62" s="33"/>
@@ -3079,7 +3074,7 @@
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" s="5"/>
-      <c r="B63" s="30"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="31"/>
       <c r="D63" s="59"/>
       <c r="E63" s="33"/>
@@ -3094,47 +3089,30 @@
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="A64" s="5"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="47">
+      <c r="B64" s="41"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="36">
         <f>E64+F64+G64+H64</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" s="5"/>
-      <c r="B65" s="30"/>
-      <c r="C65" t="s" s="48">
-        <v>15</v>
-      </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="26">
-        <f>SUM(E55:E64)</f>
-        <v>0</v>
-      </c>
-      <c r="F65" s="27">
-        <f>SUM(F55:F64)</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="27">
-        <f>SUM(G55:G64)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="27">
-        <f>SUM(H55:H64)</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="28">
-        <f>SUM(I55:I64)</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="29">
+      <c r="B65" s="41"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="36">
         <f>E65+F65+G65+H65</f>
         <v>0</v>
       </c>
@@ -3142,9 +3120,7 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" s="5"/>
       <c r="B66" s="30"/>
-      <c r="C66" t="s" s="50">
-        <v>16</v>
-      </c>
+      <c r="C66" s="31"/>
       <c r="D66" s="59"/>
       <c r="E66" s="33"/>
       <c r="F66" s="34"/>
@@ -3159,11 +3135,9 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" s="5"/>
       <c r="B67" s="30"/>
-      <c r="C67" t="s" s="50">
-        <v>17</v>
-      </c>
-      <c r="D67" s="62"/>
-      <c r="E67" s="34"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="33"/>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
       <c r="H67" s="34"/>
@@ -3175,77 +3149,73 @@
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" s="5"/>
-      <c r="B68" s="63"/>
-      <c r="C68" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="D68" s="64"/>
-      <c r="E68" s="55">
-        <f>E65+E66-E67</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="55">
-        <f>F65+F66-F67</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="55">
-        <f>G65+G66-G67</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="55">
-        <f>H65+H66-H67</f>
-        <v>0</v>
-      </c>
-      <c r="I68" s="56">
-        <f>I65+I66-I67</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="57">
+      <c r="B68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="36">
         <f>E68+F68+G68+H68</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1">
       <c r="A69" s="5"/>
-      <c r="B69" t="s" s="65">
-        <v>19</v>
-      </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="32">
-        <v>20</v>
-      </c>
-      <c r="E69" s="33"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="36">
+      <c r="B69" s="30"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="47">
         <f>E69+F69+G69+H69</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" s="5"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="67">
-        <v>25</v>
-      </c>
-      <c r="E70" s="33"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="36">
+      <c r="B70" s="30"/>
+      <c r="C70" t="s" s="48">
+        <v>15</v>
+      </c>
+      <c r="D70" s="61"/>
+      <c r="E70" s="26">
+        <f>SUM(E55:E69)</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="27">
+        <f>SUM(F55:F69)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="27">
+        <f>SUM(G55:G69)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="27">
+        <f>SUM(H55:H69)</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="28">
+        <f>SUM(I55:I69)</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="29">
         <f>E70+F70+G70+H70</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" s="5"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="68"/>
+      <c r="B71" s="30"/>
+      <c r="C71" t="s" s="50">
+        <v>16</v>
+      </c>
+      <c r="D71" s="59"/>
       <c r="E71" s="33"/>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
@@ -3258,10 +3228,12 @@
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="A72" s="5"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="33"/>
+      <c r="B72" s="30"/>
+      <c r="C72" t="s" s="50">
+        <v>17</v>
+      </c>
+      <c r="D72" s="62"/>
+      <c r="E72" s="34"/>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
       <c r="H72" s="34"/>
@@ -3273,58 +3245,62 @@
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="A73" s="5"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="47">
+      <c r="B73" s="63"/>
+      <c r="C73" t="s" s="52">
+        <v>18</v>
+      </c>
+      <c r="D73" s="64"/>
+      <c r="E73" s="55">
+        <f>E70+E71-E72</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="55">
+        <f>F70+F71-F72</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="55">
+        <f>G70+G71-G72</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="55">
+        <f>H70+H71-H72</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="56">
+        <f>I70+I71-I72</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="57">
         <f>E73+F73+G73+H73</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1">
       <c r="A74" s="5"/>
-      <c r="B74" s="30"/>
-      <c r="C74" t="s" s="48">
+      <c r="B74" t="s" s="65">
+        <v>19</v>
+      </c>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32">
         <v>20</v>
       </c>
-      <c r="D74" s="61"/>
-      <c r="E74" s="26">
-        <f>SUM(E69:E73)</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="27">
-        <f>SUM(F69:F73)</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="27">
-        <f>SUM(G69:G73)</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="27">
-        <f>SUM(H69:H73)</f>
-        <v>0</v>
-      </c>
-      <c r="I74" s="28">
-        <f>SUM(I69:I73)</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="29">
+      <c r="E74" s="33"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="36">
         <f>E74+F74+G74+H74</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1">
       <c r="A75" s="5"/>
-      <c r="B75" s="30"/>
-      <c r="C75" t="s" s="50">
-        <v>16</v>
-      </c>
-      <c r="D75" s="59"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="67">
+        <v>25</v>
+      </c>
       <c r="E75" s="33"/>
       <c r="F75" s="34"/>
       <c r="G75" s="34"/>
@@ -3337,11 +3313,9 @@
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="A76" s="5"/>
-      <c r="B76" s="30"/>
-      <c r="C76" t="s" s="50">
-        <v>17</v>
-      </c>
-      <c r="D76" s="59"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="68"/>
       <c r="E76" s="33"/>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
@@ -3354,81 +3328,79 @@
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" s="5"/>
-      <c r="B77" s="63"/>
-      <c r="C77" t="s" s="52">
-        <v>21</v>
-      </c>
-      <c r="D77" s="69"/>
-      <c r="E77" s="54">
-        <f>E74+E75-E76</f>
-        <v>0</v>
-      </c>
-      <c r="F77" s="55">
-        <f>F74+F75-F76</f>
-        <v>0</v>
-      </c>
-      <c r="G77" s="55">
-        <f>G74+G75-G76</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="55">
-        <f>H74+H75-H76</f>
-        <v>0</v>
-      </c>
-      <c r="I77" s="56">
-        <f>I74+I75-I76</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="57">
+      <c r="B77" s="66"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="36">
         <f>E77+F77+G77+H77</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="5"/>
-      <c r="B78" t="s" s="70">
-        <v>22</v>
-      </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="32">
-        <v>20</v>
-      </c>
-      <c r="E78" s="33"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="36">
+      <c r="B78" s="30"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="47">
         <f>E78+F78+G78+H78</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" s="5"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="36">
+      <c r="B79" s="30"/>
+      <c r="C79" t="s" s="48">
+        <v>20</v>
+      </c>
+      <c r="D79" s="61"/>
+      <c r="E79" s="26">
+        <f>SUM(E74:E78)</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="27">
+        <f>SUM(F74:F78)</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="27">
+        <f>SUM(G74:G78)</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="27">
+        <f>SUM(H74:H78)</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="28">
+        <f>SUM(I74:I78)</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="29">
         <f>E79+F79+G79+H79</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" s="5"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="47">
+      <c r="B80" s="30"/>
+      <c r="C80" t="s" s="50">
+        <v>16</v>
+      </c>
+      <c r="D80" s="59"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="36">
         <f>E80+F80+G80+H80</f>
         <v>0</v>
       </c>
@@ -3436,60 +3408,62 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" s="5"/>
       <c r="B81" s="30"/>
-      <c r="C81" t="s" s="48">
-        <v>23</v>
-      </c>
-      <c r="D81" s="61"/>
-      <c r="E81" s="26">
-        <f>SUM(E78:E78)</f>
-        <v>0</v>
-      </c>
-      <c r="F81" s="27">
-        <f>SUM(F78:F78)</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="27">
-        <f>SUM(G78:G78)</f>
-        <v>0</v>
-      </c>
-      <c r="H81" s="27">
-        <f>SUM(H78:H78)</f>
-        <v>0</v>
-      </c>
-      <c r="I81" s="28">
-        <f>SUM(I78:I78)</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="29">
+      <c r="C81" t="s" s="50">
+        <v>17</v>
+      </c>
+      <c r="D81" s="59"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="36">
         <f>E81+F81+G81+H81</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" s="5"/>
-      <c r="B82" s="30"/>
-      <c r="C82" t="s" s="50">
-        <v>16</v>
-      </c>
-      <c r="D82" s="59"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="36">
+      <c r="B82" s="63"/>
+      <c r="C82" t="s" s="52">
+        <v>21</v>
+      </c>
+      <c r="D82" s="69"/>
+      <c r="E82" s="54">
+        <f>E79+E80-E81</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="55">
+        <f>F79+F80-F81</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="55">
+        <f>G79+G80-G81</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="55">
+        <f>H79+H80-H81</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="56">
+        <f>I79+I80-I81</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="57">
         <f>E82+F82+G82+H82</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" s="5"/>
-      <c r="B83" s="30"/>
-      <c r="C83" t="s" s="50">
-        <v>17</v>
-      </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="34"/>
+      <c r="B83" t="s" s="70">
+        <v>22</v>
+      </c>
+      <c r="C83" s="31"/>
+      <c r="D83" s="32">
+        <v>20</v>
+      </c>
+      <c r="E83" s="33"/>
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
       <c r="H83" s="34"/>
@@ -3501,51 +3475,30 @@
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="A84" s="5"/>
-      <c r="B84" s="63"/>
-      <c r="C84" t="s" s="52">
-        <v>24</v>
-      </c>
-      <c r="D84" s="64"/>
-      <c r="E84" s="55">
-        <f>E81+E82-E83</f>
-        <v>0</v>
-      </c>
-      <c r="F84" s="55">
-        <f>F81+F82-F83</f>
-        <v>0</v>
-      </c>
-      <c r="G84" s="55">
-        <f>G81+G82-G83</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="55">
-        <f>H81+H82-H83</f>
-        <v>0</v>
-      </c>
-      <c r="I84" s="56">
-        <f>I81+I82-I83</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="57">
+      <c r="B84" s="40"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="36">
         <f>E84+F84+G84+H84</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="A85" s="5"/>
-      <c r="B85" t="s" s="72">
-        <v>25</v>
-      </c>
-      <c r="C85" s="31"/>
-      <c r="D85" s="73">
-        <v>25</v>
-      </c>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="36">
+      <c r="B85" s="71"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="47">
         <f>E85+F85+G85+H85</f>
         <v>0</v>
       </c>
@@ -3553,24 +3506,43 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" s="5"/>
       <c r="B86" s="30"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="36">
+      <c r="C86" t="s" s="48">
+        <v>23</v>
+      </c>
+      <c r="D86" s="61"/>
+      <c r="E86" s="26">
+        <f>SUM(E83:E83)</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="27">
+        <f>SUM(F83:F83)</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="27">
+        <f>SUM(G83:G83)</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="27">
+        <f>SUM(H83:H83)</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="28">
+        <f>SUM(I83:I83)</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="29">
         <f>E86+F86+G86+H86</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="A87" s="5"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="34"/>
+      <c r="B87" s="30"/>
+      <c r="C87" t="s" s="50">
+        <v>16</v>
+      </c>
+      <c r="D87" s="59"/>
+      <c r="E87" s="33"/>
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
       <c r="H87" s="34"/>
@@ -3582,8 +3554,10 @@
     </row>
     <row r="88" ht="15" customHeight="1">
       <c r="A88" s="5"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="31"/>
+      <c r="B88" s="30"/>
+      <c r="C88" t="s" s="50">
+        <v>17</v>
+      </c>
       <c r="D88" s="62"/>
       <c r="E88" s="34"/>
       <c r="F88" s="34"/>
@@ -3597,24 +3571,45 @@
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" s="5"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="62"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="36">
+      <c r="B89" s="63"/>
+      <c r="C89" t="s" s="52">
+        <v>24</v>
+      </c>
+      <c r="D89" s="64"/>
+      <c r="E89" s="55">
+        <f>E86+E87-E88</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="55">
+        <f>F86+F87-F88</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="55">
+        <f>G86+G87-G88</f>
+        <v>0</v>
+      </c>
+      <c r="H89" s="55">
+        <f>H86+H87-H88</f>
+        <v>0</v>
+      </c>
+      <c r="I89" s="56">
+        <f>I86+I87-I88</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="57">
         <f>E89+F89+G89+H89</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="A90" s="5"/>
-      <c r="B90" s="41"/>
+      <c r="B90" t="s" s="72">
+        <v>25</v>
+      </c>
       <c r="C90" s="31"/>
-      <c r="D90" s="62"/>
+      <c r="D90" s="73">
+        <v>25</v>
+      </c>
       <c r="E90" s="34"/>
       <c r="F90" s="34"/>
       <c r="G90" s="34"/>
@@ -3627,7 +3622,7 @@
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="A91" s="5"/>
-      <c r="B91" s="41"/>
+      <c r="B91" s="30"/>
       <c r="C91" s="31"/>
       <c r="D91" s="62"/>
       <c r="E91" s="34"/>
@@ -3643,58 +3638,39 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" s="5"/>
       <c r="B92" s="41"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="74"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="47">
+      <c r="C92" s="31"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="36">
         <f>E92+F92+G92+H92</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="A93" s="5"/>
-      <c r="B93" s="30"/>
-      <c r="C93" t="s" s="48">
-        <v>26</v>
-      </c>
-      <c r="D93" s="61"/>
-      <c r="E93" s="26">
-        <f>SUM(E85:E86)</f>
-        <v>0</v>
-      </c>
-      <c r="F93" s="27">
-        <f>SUM(F85:F86)</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="27">
-        <f>SUM(G85:G86)</f>
-        <v>0</v>
-      </c>
-      <c r="H93" s="27">
-        <f>SUM(H85:H86)</f>
-        <v>0</v>
-      </c>
-      <c r="I93" s="28">
-        <f>SUM(I85:I86)</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="29">
+      <c r="B93" s="41"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="62"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="36">
         <f>E93+F93+G93+H93</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="A94" s="5"/>
-      <c r="B94" s="30"/>
-      <c r="C94" t="s" s="50">
-        <v>16</v>
-      </c>
-      <c r="D94" s="59"/>
-      <c r="E94" s="33"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="34"/>
       <c r="F94" s="34"/>
       <c r="G94" s="34"/>
       <c r="H94" s="34"/>
@@ -3706,12 +3682,10 @@
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="A95" s="5"/>
-      <c r="B95" s="30"/>
-      <c r="C95" t="s" s="50">
-        <v>17</v>
-      </c>
-      <c r="D95" s="59"/>
-      <c r="E95" s="33"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="34"/>
       <c r="F95" s="34"/>
       <c r="G95" s="34"/>
       <c r="H95" s="34"/>
@@ -3723,51 +3697,30 @@
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="A96" s="5"/>
-      <c r="B96" s="63"/>
-      <c r="C96" t="s" s="52">
-        <v>27</v>
-      </c>
-      <c r="D96" s="69"/>
-      <c r="E96" s="54">
-        <f>E93+E94-E95</f>
-        <v>0</v>
-      </c>
-      <c r="F96" s="55">
-        <f>F93+F94-F95</f>
-        <v>0</v>
-      </c>
-      <c r="G96" s="55">
-        <f>G93+G94-G95</f>
-        <v>0</v>
-      </c>
-      <c r="H96" s="55">
-        <f>H93+H94-H95</f>
-        <v>0</v>
-      </c>
-      <c r="I96" s="56">
-        <f>I93+I94-I95</f>
-        <v>0</v>
-      </c>
-      <c r="J96" s="57">
+      <c r="B96" s="41"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="36">
         <f>E96+F96+G96+H96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="A97" s="5"/>
-      <c r="B97" t="s" s="72">
-        <v>28</v>
-      </c>
-      <c r="C97" s="31"/>
-      <c r="D97" s="32">
-        <v>20</v>
-      </c>
-      <c r="E97" s="33"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="36">
+      <c r="B97" s="41"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="47">
         <f>E97+F97+G97+H97</f>
         <v>0</v>
       </c>
@@ -3775,16 +3728,31 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" s="5"/>
       <c r="B98" s="30"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="32">
-        <v>20</v>
-      </c>
-      <c r="E98" s="33"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="36">
+      <c r="C98" t="s" s="48">
+        <v>26</v>
+      </c>
+      <c r="D98" s="61"/>
+      <c r="E98" s="26">
+        <f>SUM(E90:E91)</f>
+        <v>0</v>
+      </c>
+      <c r="F98" s="27">
+        <f>SUM(F90:F91)</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="27">
+        <f>SUM(G90:G91)</f>
+        <v>0</v>
+      </c>
+      <c r="H98" s="27">
+        <f>SUM(H90:H91)</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="28">
+        <f>SUM(I90:I91)</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="29">
         <f>E98+F98+G98+H98</f>
         <v>0</v>
       </c>
@@ -3792,10 +3760,10 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" s="5"/>
       <c r="B99" s="30"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="37">
-        <v>25</v>
-      </c>
+      <c r="C99" t="s" s="50">
+        <v>16</v>
+      </c>
+      <c r="D99" s="59"/>
       <c r="E99" s="33"/>
       <c r="F99" s="34"/>
       <c r="G99" s="34"/>
@@ -3809,10 +3777,10 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="30"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="37">
-        <v>25</v>
-      </c>
+      <c r="C100" t="s" s="50">
+        <v>17</v>
+      </c>
+      <c r="D100" s="59"/>
       <c r="E100" s="33"/>
       <c r="F100" s="34"/>
       <c r="G100" s="34"/>
@@ -3825,27 +3793,44 @@
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="A101" s="5"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="37">
-        <v>25</v>
-      </c>
-      <c r="E101" s="33"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="35"/>
-      <c r="J101" s="36">
+      <c r="B101" s="63"/>
+      <c r="C101" t="s" s="52">
+        <v>27</v>
+      </c>
+      <c r="D101" s="69"/>
+      <c r="E101" s="54">
+        <f>E98+E99-E100</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="55">
+        <f>F98+F99-F100</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="55">
+        <f>G98+G99-G100</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="55">
+        <f>H98+H99-H100</f>
+        <v>0</v>
+      </c>
+      <c r="I101" s="56">
+        <f>I98+I99-I100</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="57">
         <f>E101+F101+G101+H101</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="A102" s="5"/>
-      <c r="B102" s="30"/>
+      <c r="B102" t="s" s="72">
+        <v>28</v>
+      </c>
       <c r="C102" s="31"/>
-      <c r="D102" s="37">
-        <v>25</v>
+      <c r="D102" s="32">
+        <v>20</v>
       </c>
       <c r="E102" s="33"/>
       <c r="F102" s="34"/>
@@ -3861,7 +3846,9 @@
       <c r="A103" s="5"/>
       <c r="B103" s="30"/>
       <c r="C103" s="31"/>
-      <c r="D103" s="39"/>
+      <c r="D103" s="32">
+        <v>20</v>
+      </c>
       <c r="E103" s="33"/>
       <c r="F103" s="34"/>
       <c r="G103" s="34"/>
@@ -3876,7 +3863,9 @@
       <c r="A104" s="5"/>
       <c r="B104" s="30"/>
       <c r="C104" s="31"/>
-      <c r="D104" s="39"/>
+      <c r="D104" s="37">
+        <v>25</v>
+      </c>
       <c r="E104" s="33"/>
       <c r="F104" s="34"/>
       <c r="G104" s="34"/>
@@ -3891,7 +3880,9 @@
       <c r="A105" s="5"/>
       <c r="B105" s="30"/>
       <c r="C105" s="31"/>
-      <c r="D105" s="39"/>
+      <c r="D105" s="37">
+        <v>25</v>
+      </c>
       <c r="E105" s="33"/>
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
@@ -3905,94 +3896,173 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" s="5"/>
       <c r="B106" s="30"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="75"/>
-      <c r="E106" s="44"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="46"/>
-      <c r="J106" s="47">
+      <c r="C106" s="31"/>
+      <c r="D106" s="37">
+        <v>25</v>
+      </c>
+      <c r="E106" s="33"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="36">
         <f>E106+F106+G106+H106</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="A107" s="5"/>
-      <c r="B107" s="63"/>
-      <c r="C107" t="s" s="76">
+      <c r="B107" s="30"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="37">
+        <v>25</v>
+      </c>
+      <c r="E107" s="33"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="36">
+        <f>E107+F107+G107+H107</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" ht="15" customHeight="1">
+      <c r="A108" s="5"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="36">
+        <f>E108+F108+G108+H108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" ht="15" customHeight="1">
+      <c r="A109" s="5"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="35"/>
+      <c r="J109" s="36">
+        <f>E109+F109+G109+H109</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" ht="15" customHeight="1">
+      <c r="A110" s="5"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="35"/>
+      <c r="J110" s="36">
+        <f>E110+F110+G110+H110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" ht="15" customHeight="1">
+      <c r="A111" s="5"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="75"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="45"/>
+      <c r="I111" s="46"/>
+      <c r="J111" s="47">
+        <f>E111+F111+G111+H111</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" ht="15" customHeight="1">
+      <c r="A112" s="5"/>
+      <c r="B112" s="63"/>
+      <c r="C112" t="s" s="76">
         <v>29</v>
       </c>
-      <c r="D107" s="77"/>
-      <c r="E107" s="78">
-        <f>SUM(E97:E106)</f>
-        <v>0</v>
-      </c>
-      <c r="F107" s="78">
-        <f>SUM(F97:F106)</f>
-        <v>0</v>
-      </c>
-      <c r="G107" s="78">
-        <f>SUM(G97:G106)</f>
-        <v>0</v>
-      </c>
-      <c r="H107" s="78">
-        <f>SUM(H97:H106)</f>
-        <v>0</v>
-      </c>
-      <c r="I107" s="78">
-        <f>SUM(I97:I106)</f>
-        <v>0</v>
-      </c>
-      <c r="J107" s="78">
-        <f>E107+F107+G107+H107</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" ht="28" customHeight="1">
-      <c r="A108" s="5"/>
-      <c r="B108" s="43"/>
-      <c r="C108" t="s" s="79">
+      <c r="D112" s="77"/>
+      <c r="E112" s="78">
+        <f>SUM(E102:E111)</f>
+        <v>0</v>
+      </c>
+      <c r="F112" s="78">
+        <f>SUM(F102:F111)</f>
+        <v>0</v>
+      </c>
+      <c r="G112" s="78">
+        <f>SUM(G102:G111)</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="78">
+        <f>SUM(H102:H111)</f>
+        <v>0</v>
+      </c>
+      <c r="I112" s="78">
+        <f>SUM(I102:I111)</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="78">
+        <f>E112+F112+G112+H112</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" ht="28" customHeight="1">
+      <c r="A113" s="5"/>
+      <c r="B113" s="43"/>
+      <c r="C113" t="s" s="79">
         <v>30</v>
       </c>
-      <c r="D108" s="80"/>
-      <c r="E108" s="81">
-        <f>E107+E96+E77+E84+E68+E54</f>
-        <v>0</v>
-      </c>
-      <c r="F108" s="81">
-        <f>F107+F96+F77+F84+F68+F54</f>
-        <v>0</v>
-      </c>
-      <c r="G108" s="81">
-        <f>G107+G96+G77+G84+G68+G54</f>
-        <v>0</v>
-      </c>
-      <c r="H108" s="81">
-        <f>H107+H96+H77+H84+H68+H54</f>
-        <v>0</v>
-      </c>
-      <c r="I108" s="81">
-        <f>I107+I96+I77+I84+I68+I54</f>
-        <v>0</v>
-      </c>
-      <c r="J108" s="81">
-        <f>J107+J96+J77+J84+J68+J54</f>
+      <c r="D113" s="80"/>
+      <c r="E113" s="81">
+        <f>E112+E101+E82+E89+E73+E54</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="81">
+        <f>F112+F101+F82+F89+F73+F54</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="81">
+        <f>G112+G101+G82+G89+G73+G54</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="81">
+        <f>H112+H101+H82+H89+H73+H54</f>
+        <v>0</v>
+      </c>
+      <c r="I113" s="81">
+        <f>I112+I101+I82+I89+I73+I54</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="81">
+        <f>J112+J101+J82+J89+J73+J54</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B97:B107"/>
+    <mergeCell ref="B102:B112"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B5:B54"/>
-    <mergeCell ref="B55:B68"/>
-    <mergeCell ref="B78:B84"/>
-    <mergeCell ref="B85:B96"/>
+    <mergeCell ref="B55:B73"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="B90:B101"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="B74:B82"/>
   </mergeCells>
-  <conditionalFormatting sqref="E5:J108">
+  <conditionalFormatting sqref="E5:J113">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>

--- a/app/webroot/excel/kaikake.xlsx
+++ b/app/webroot/excel/kaikake.xlsx
@@ -903,7 +903,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="ffff0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="ffff0000"/>
@@ -3510,24 +3515,24 @@
         <v>23</v>
       </c>
       <c r="D86" s="61"/>
-      <c r="E86" s="26">
-        <f>SUM(E83:E83)</f>
-        <v>0</v>
-      </c>
-      <c r="F86" s="27">
-        <f>SUM(F83:F83)</f>
-        <v>0</v>
-      </c>
-      <c r="G86" s="27">
-        <f>SUM(G83:G83)</f>
-        <v>0</v>
-      </c>
-      <c r="H86" s="27">
-        <f>SUM(H83:H83)</f>
+      <c r="E86" s="29">
+        <f>SUM(E83:E85)</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="29">
+        <f>SUM(F83:F85)</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="29">
+        <f>SUM(G83:G85)</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="26">
+        <f>SUM(H83:H85)</f>
         <v>0</v>
       </c>
       <c r="I86" s="28">
-        <f>SUM(I83:I83)</f>
+        <f>SUM(I83:I85)</f>
         <v>0</v>
       </c>
       <c r="J86" s="29">
@@ -3732,24 +3737,24 @@
         <v>26</v>
       </c>
       <c r="D98" s="61"/>
-      <c r="E98" s="26">
-        <f>SUM(E90:E91)</f>
-        <v>0</v>
-      </c>
-      <c r="F98" s="27">
-        <f>SUM(F90:F91)</f>
-        <v>0</v>
-      </c>
-      <c r="G98" s="27">
-        <f>SUM(G90:G91)</f>
-        <v>0</v>
-      </c>
-      <c r="H98" s="27">
-        <f>SUM(H90:H91)</f>
+      <c r="E98" s="29">
+        <f>SUM(E90:E97)</f>
+        <v>0</v>
+      </c>
+      <c r="F98" s="29">
+        <f>SUM(F90:F97)</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="29">
+        <f>SUM(G90:G97)</f>
+        <v>0</v>
+      </c>
+      <c r="H98" s="26">
+        <f>SUM(H90:H97)</f>
         <v>0</v>
       </c>
       <c r="I98" s="28">
-        <f>SUM(I90:I91)</f>
+        <f>SUM(I90:I97)</f>
         <v>0</v>
       </c>
       <c r="J98" s="29">
@@ -4062,8 +4067,13 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B74:B82"/>
   </mergeCells>
-  <conditionalFormatting sqref="E5:J113">
+  <conditionalFormatting sqref="E5:J85 E86:E97 J86 F87:J97 J98 E99:J113">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:I86 E98:I98">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/app/webroot/excel/kaikake.xlsx
+++ b/app/webroot/excel/kaikake.xlsx
@@ -11,15 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>買掛現金支払表</t>
+  </si>
+  <si>
+    <t>(有)リバーサイド</t>
   </si>
   <si>
     <t>各支払先</t>
   </si>
   <si>
-    <t>〆切</t>
+    <t>支払</t>
   </si>
   <si>
     <t>池袋店</t>
@@ -34,7 +37,7 @@
     <t>和光苑</t>
   </si>
   <si>
-    <t>BATON</t>
+    <t>東池袋店</t>
   </si>
   <si>
     <t>合計</t>
@@ -70,14 +73,13 @@
     <t>【飲料】合　　　計</t>
   </si>
   <si>
-    <t>海苔+
-調味料</t>
+    <t>調味料+海苔</t>
   </si>
   <si>
     <t>海苔・調味料小計</t>
   </si>
   <si>
-    <t>【ヤキ・小川】合　　　計</t>
+    <t>【調味料・海苔】合　　　計</t>
   </si>
   <si>
     <t>米</t>
@@ -142,7 +144,12 @@
       <name val="ＭＳ Ｐ明朝"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐ明朝"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐ明朝"/>
     </font>
@@ -152,17 +159,12 @@
       <name val="ＭＳ Ｐ明朝"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="13"/>
-      <name val="ＭＳ Ｐ明朝"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="17"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐ明朝"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,30 +179,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -302,6 +286,69 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -585,7 +632,7 @@
         <color indexed="8"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -597,53 +644,10 @@
       <right style="medium">
         <color indexed="8"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -652,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,235 +684,155 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="8" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="ffff0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="ffff0000"/>
@@ -929,11 +853,8 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff0000"/>
       <rgbColor rgb="ffd8d8d8"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="fffde9d9"/>
-      <rgbColor rgb="ffdaeef3"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2035,11 +1956,11 @@
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="17" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="1.35156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.17188" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.67188" style="1" customWidth="1"/>
-    <col min="5" max="9" width="12.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
+    <col min="5" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1719" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2055,18 +1976,20 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" ht="22" customHeight="1">
+    <row r="2" ht="26" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" t="s" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="11"/>
+      <c r="E2" t="s" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="I2" t="s" s="12">
+        <v>1</v>
+      </c>
       <c r="J2" s="13"/>
     </row>
     <row r="3" ht="8" customHeight="1">
@@ -2074,1456 +1997,1394 @@
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" ht="21" customHeight="1">
+    <row r="4" ht="20" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="16"/>
       <c r="C4" t="s" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s" s="21">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s" s="22">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
+      <c r="J4" t="s" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" t="s" s="23">
-        <v>9</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25">
-        <v>20</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29">
+      <c r="B5" t="s" s="22">
+        <v>10</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28">
         <f>E5+F5+G5+H5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" ht="13" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32">
-        <v>20</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36">
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35">
         <f>E6+F6+G6+H6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" ht="13" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32">
-        <v>20</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35">
         <f>E7+F7+G7+H7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" ht="13" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32">
-        <v>20</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35">
         <f>E8+F8+G8+H8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" ht="13" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32">
-        <v>20</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="35">
         <f>E9+F9+G9+H9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" ht="13" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32">
-        <v>20</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="36">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35">
         <f>E10+F10+G10+H10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" ht="13" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32">
-        <v>20</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35">
         <f>E11+F11+G11+H11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" ht="13" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32">
-        <v>20</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="36">
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35">
         <f>E12+F12+G12+H12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" ht="13" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32">
-        <v>20</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="36">
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35">
         <f>E13+F13+G13+H13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" ht="13" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32">
-        <v>20</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="36">
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35">
         <f>E14+F14+G14+H14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" ht="13" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32">
-        <v>20</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35">
         <f>E15+F15+G15+H15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" ht="13" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32">
-        <v>20</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35">
         <f>E16+F16+G16+H16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" ht="13" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32">
-        <v>20</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35">
         <f>E17+F17+G17+H17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" ht="13" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32">
-        <v>20</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36">
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35">
         <f>E18+F18+G18+H18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" ht="13" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32">
-        <v>20</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36">
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35">
         <f>E19+F19+G19+H19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" ht="13" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32">
-        <v>20</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36">
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35">
         <f>E20+F20+G20+H20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" ht="13" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="37">
-        <v>25</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36">
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="35">
         <f>E21+F21+G21+H21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" ht="13" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="37">
-        <v>25</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="36">
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="35">
         <f>E22+F22+G22+H22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" ht="13" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="36">
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35">
         <f>E23+F23+G23+H23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" ht="13" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="37">
-        <v>15</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="36">
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35">
         <f>E24+F24+G24+H24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" ht="13" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="37">
-        <v>30</v>
-      </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="36">
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35">
         <f>E25+F25+G25+H25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" ht="13" customHeight="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="37">
-        <v>15</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36">
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35">
         <f>E26+F26+G26+H26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" ht="13" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="37">
-        <v>30</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="36">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35">
         <f>E27+F27+G27+H27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" ht="13" customHeight="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="36">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="35">
         <f>E28+F28+G28+H28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" ht="13" customHeight="1">
       <c r="A29" s="5"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="36">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35">
         <f>E29+F29+G29+H29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" ht="13" customHeight="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="36">
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="35">
         <f>E30+F30+G30+H30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" ht="13" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="36">
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="35">
         <f>E31+F31+G31+H31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" ht="13" customHeight="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="36">
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35">
         <f>E32+F32+G32+H32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" ht="13" customHeight="1">
       <c r="A33" s="5"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="36">
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="35">
         <f>E33+F33+G33+H33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" ht="13" customHeight="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="36">
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="35">
         <f>E34+F34+G34+H34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" ht="13" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="36">
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35">
         <f>E35+F35+G35+H35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" ht="13" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="36">
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="35">
         <f>E36+F36+G36+H36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" ht="13" customHeight="1">
       <c r="A37" s="5"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="36">
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="35">
         <f>E37+F37+G37+H37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" ht="13" customHeight="1">
       <c r="A38" s="5"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="36">
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="35">
         <f>E38+F38+G38+H38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" ht="13" customHeight="1">
       <c r="A39" s="5"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="36">
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="35">
         <f>E39+F39+G39+H39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" ht="13" customHeight="1">
       <c r="A40" s="5"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="36">
+      <c r="B40" s="36"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="35">
         <f>E40+F40+G40+H40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" ht="13" customHeight="1">
       <c r="A41" s="5"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="36">
+      <c r="B41" s="36"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35">
         <f>E41+F41+G41+H41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" ht="13" customHeight="1">
       <c r="A42" s="5"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="36">
+      <c r="B42" s="36"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="35">
         <f>E42+F42+G42+H42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" ht="13" customHeight="1">
       <c r="A43" s="5"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="36">
+      <c r="B43" s="36"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="35">
         <f>E43+F43+G43+H43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" ht="13" customHeight="1">
       <c r="A44" s="5"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="36">
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35">
         <f>E44+F44+G44+H44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" ht="13" customHeight="1">
       <c r="A45" s="5"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="36">
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35">
         <f>E45+F45+G45+H45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
+    <row r="46" ht="13" customHeight="1">
       <c r="A46" s="5"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="36">
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="35">
         <f>E46+F46+G46+H46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
+    <row r="47" ht="13" customHeight="1">
       <c r="A47" s="5"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="36">
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="35">
         <f>E47+F47+G47+H47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
+    <row r="48" ht="13" customHeight="1">
       <c r="A48" s="5"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="36">
+      <c r="B48" s="36"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="35">
         <f>E48+F48+G48+H48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1">
+    <row r="49" ht="13" customHeight="1">
       <c r="A49" s="5"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="36">
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="35">
         <f>E49+F49+G49+H49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1">
+    <row r="50" ht="13" customHeight="1">
       <c r="A50" s="5"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="47">
+      <c r="B50" s="29"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="42">
         <f>E50+F50+G50+H50</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" s="5"/>
-      <c r="B51" s="30"/>
-      <c r="C51" t="s" s="48">
-        <v>10</v>
-      </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="26">
+      <c r="B51" s="29"/>
+      <c r="C51" t="s" s="43">
+        <v>11</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25">
         <f>SUM(E5:E50)</f>
         <v>0</v>
       </c>
-      <c r="F51" s="27">
+      <c r="F51" s="26">
         <f>SUM(F5:F50)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="27">
+      <c r="G51" s="26">
         <f>SUM(G5:G50)</f>
         <v>0</v>
       </c>
-      <c r="H51" s="27">
+      <c r="H51" s="26">
         <f>SUM(H5:H50)</f>
         <v>0</v>
       </c>
-      <c r="I51" s="28">
+      <c r="I51" s="27">
         <f>SUM(I5:I50)</f>
         <v>0</v>
       </c>
-      <c r="J51" s="29">
+      <c r="J51" s="28">
         <f>SUM(J5:J50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" s="5"/>
-      <c r="B52" s="30"/>
-      <c r="C52" t="s" s="50">
-        <v>11</v>
-      </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="36">
+      <c r="B52" s="29"/>
+      <c r="C52" t="s" s="44">
+        <v>12</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="35">
         <f>SUM(E52:H52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" s="5"/>
-      <c r="B53" s="30"/>
-      <c r="C53" t="s" s="50">
-        <v>12</v>
-      </c>
-      <c r="D53" s="40"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="36">
+      <c r="B53" s="29"/>
+      <c r="C53" t="s" s="44">
+        <v>13</v>
+      </c>
+      <c r="D53" s="31"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35">
         <f>SUM(E53:H53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="5"/>
-      <c r="B54" s="51"/>
-      <c r="C54" t="s" s="52">
-        <v>13</v>
-      </c>
-      <c r="D54" s="53"/>
-      <c r="E54" s="54">
+      <c r="B54" s="45"/>
+      <c r="C54" t="s" s="46">
+        <v>14</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="32">
         <f>E51+E52-E53</f>
         <v>0</v>
       </c>
-      <c r="F54" s="55">
+      <c r="F54" s="33">
         <f>F51+F52-F53</f>
         <v>0</v>
       </c>
-      <c r="G54" s="55">
+      <c r="G54" s="33">
         <f>G51+G52-G53</f>
         <v>0</v>
       </c>
-      <c r="H54" s="55">
+      <c r="H54" s="33">
         <f>H51+H52-H53</f>
         <v>0</v>
       </c>
-      <c r="I54" s="56">
+      <c r="I54" s="34">
         <f>I51+I52-I53</f>
         <v>0</v>
       </c>
-      <c r="J54" s="57">
+      <c r="J54" s="35">
         <f>J51+J52-J53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1">
+    <row r="55" ht="13" customHeight="1">
       <c r="A55" s="5"/>
-      <c r="B55" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="37">
+      <c r="B55" t="s" s="47">
         <v>15</v>
       </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="36">
+      <c r="C55" s="30"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="35">
         <f>E55+F55+G55+H55</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1">
+    <row r="56" ht="13" customHeight="1">
       <c r="A56" s="5"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="37">
-        <v>30</v>
-      </c>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="36">
+      <c r="B56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="35">
         <f>E56+F56+G56+H56</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1">
+    <row r="57" ht="13" customHeight="1">
       <c r="A57" s="5"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="58">
-        <v>20</v>
-      </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="36">
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="35">
         <f>E57+F57+G57+H57</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1">
+    <row r="58" ht="13" customHeight="1">
       <c r="A58" s="5"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="58">
-        <v>20</v>
-      </c>
-      <c r="E58" s="33"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="36">
+      <c r="B58" s="29"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="35">
         <f>E58+F58+G58+H58</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1">
+    <row r="59" ht="13" customHeight="1">
       <c r="A59" s="5"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="58">
-        <v>20</v>
-      </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="36">
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="35">
         <f>E59+F59+G59+H59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1">
+    <row r="60" ht="13" customHeight="1">
       <c r="A60" s="5"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="58">
-        <v>20</v>
-      </c>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="36">
+      <c r="B60" s="29"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="35">
         <f>E60+F60+G60+H60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1">
+    <row r="61" ht="13" customHeight="1">
       <c r="A61" s="5"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="36">
+      <c r="B61" s="36"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="35">
         <f>E61+F61+G61+H61</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1">
+    <row r="62" ht="13" customHeight="1">
       <c r="A62" s="5"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="36">
+      <c r="B62" s="36"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35">
         <f>E62+F62+G62+H62</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1">
+    <row r="63" ht="13" customHeight="1">
       <c r="A63" s="5"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="36">
+      <c r="B63" s="36"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="35">
         <f>E63+F63+G63+H63</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1">
+    <row r="64" ht="13" customHeight="1">
       <c r="A64" s="5"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="36">
+      <c r="B64" s="36"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="35">
         <f>E64+F64+G64+H64</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1">
+    <row r="65" ht="13" customHeight="1">
       <c r="A65" s="5"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="36">
+      <c r="B65" s="36"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="35">
         <f>E65+F65+G65+H65</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1">
+    <row r="66" ht="13" customHeight="1">
       <c r="A66" s="5"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="36">
+      <c r="B66" s="29"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="35">
         <f>E66+F66+G66+H66</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1">
+    <row r="67" ht="13" customHeight="1">
       <c r="A67" s="5"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="36">
+      <c r="B67" s="29"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="35">
         <f>E67+F67+G67+H67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1">
+    <row r="68" ht="13" customHeight="1">
       <c r="A68" s="5"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="36">
+      <c r="B68" s="29"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="35">
         <f>E68+F68+G68+H68</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1">
+    <row r="69" ht="13" customHeight="1">
       <c r="A69" s="5"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="47">
+      <c r="B69" s="29"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="42">
         <f>E69+F69+G69+H69</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" s="5"/>
-      <c r="B70" s="30"/>
-      <c r="C70" t="s" s="48">
-        <v>15</v>
-      </c>
-      <c r="D70" s="61"/>
-      <c r="E70" s="26">
+      <c r="B70" s="29"/>
+      <c r="C70" t="s" s="43">
+        <v>16</v>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" s="25">
         <f>SUM(E55:E69)</f>
         <v>0</v>
       </c>
-      <c r="F70" s="27">
+      <c r="F70" s="26">
         <f>SUM(F55:F69)</f>
         <v>0</v>
       </c>
-      <c r="G70" s="27">
+      <c r="G70" s="26">
         <f>SUM(G55:G69)</f>
         <v>0</v>
       </c>
-      <c r="H70" s="27">
+      <c r="H70" s="26">
         <f>SUM(H55:H69)</f>
         <v>0</v>
       </c>
-      <c r="I70" s="28">
+      <c r="I70" s="27">
         <f>SUM(I55:I69)</f>
         <v>0</v>
       </c>
-      <c r="J70" s="29">
+      <c r="J70" s="28">
         <f>E70+F70+G70+H70</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" s="5"/>
-      <c r="B71" s="30"/>
-      <c r="C71" t="s" s="50">
-        <v>16</v>
-      </c>
-      <c r="D71" s="59"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="36">
+      <c r="B71" s="29"/>
+      <c r="C71" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35">
         <f>E71+F71+G71+H71</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="A72" s="5"/>
-      <c r="B72" s="30"/>
-      <c r="C72" t="s" s="50">
-        <v>17</v>
-      </c>
-      <c r="D72" s="62"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="36">
+      <c r="B72" s="29"/>
+      <c r="C72" t="s" s="44">
+        <v>18</v>
+      </c>
+      <c r="D72" s="31"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="35">
         <f>E72+F72+G72+H72</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="A73" s="5"/>
-      <c r="B73" s="63"/>
-      <c r="C73" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="D73" s="64"/>
-      <c r="E73" s="55">
+      <c r="B73" s="45"/>
+      <c r="C73" t="s" s="46">
+        <v>19</v>
+      </c>
+      <c r="D73" s="31"/>
+      <c r="E73" s="32">
         <f>E70+E71-E72</f>
         <v>0</v>
       </c>
-      <c r="F73" s="55">
+      <c r="F73" s="33">
         <f>F70+F71-F72</f>
         <v>0</v>
       </c>
-      <c r="G73" s="55">
+      <c r="G73" s="33">
         <f>G70+G71-G72</f>
         <v>0</v>
       </c>
-      <c r="H73" s="55">
+      <c r="H73" s="33">
         <f>H70+H71-H72</f>
         <v>0</v>
       </c>
-      <c r="I73" s="56">
+      <c r="I73" s="34">
         <f>I70+I71-I72</f>
         <v>0</v>
       </c>
-      <c r="J73" s="57">
+      <c r="J73" s="35">
         <f>E73+F73+G73+H73</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1">
+    <row r="74" ht="13" customHeight="1">
       <c r="A74" s="5"/>
-      <c r="B74" t="s" s="65">
-        <v>19</v>
-      </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="32">
+      <c r="B74" t="s" s="48">
         <v>20</v>
       </c>
-      <c r="E74" s="33"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="36">
+      <c r="C74" s="30"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="35">
         <f>E74+F74+G74+H74</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1">
+    <row r="75" ht="13" customHeight="1">
       <c r="A75" s="5"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="67">
-        <v>25</v>
-      </c>
-      <c r="E75" s="33"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="36">
+      <c r="B75" s="49"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="35">
         <f>E75+F75+G75+H75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1">
+    <row r="76" ht="13" customHeight="1">
       <c r="A76" s="5"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="36">
+      <c r="B76" s="49"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="35">
         <f>E76+F76+G76+H76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1">
+    <row r="77" ht="13" customHeight="1">
       <c r="A77" s="5"/>
-      <c r="B77" s="66"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="36">
+      <c r="B77" s="49"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="35">
         <f>E77+F77+G77+H77</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1">
+    <row r="78" ht="13" customHeight="1">
       <c r="A78" s="5"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="47">
+      <c r="B78" s="29"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="42">
         <f>E78+F78+G78+H78</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" s="5"/>
-      <c r="B79" s="30"/>
-      <c r="C79" t="s" s="48">
-        <v>20</v>
-      </c>
-      <c r="D79" s="61"/>
-      <c r="E79" s="26">
+      <c r="B79" s="29"/>
+      <c r="C79" t="s" s="43">
+        <v>21</v>
+      </c>
+      <c r="D79" s="24"/>
+      <c r="E79" s="25">
         <f>SUM(E74:E78)</f>
         <v>0</v>
       </c>
-      <c r="F79" s="27">
+      <c r="F79" s="26">
         <f>SUM(F74:F78)</f>
         <v>0</v>
       </c>
-      <c r="G79" s="27">
+      <c r="G79" s="26">
         <f>SUM(G74:G78)</f>
         <v>0</v>
       </c>
-      <c r="H79" s="27">
+      <c r="H79" s="26">
         <f>SUM(H74:H78)</f>
         <v>0</v>
       </c>
-      <c r="I79" s="28">
+      <c r="I79" s="27">
         <f>SUM(I74:I78)</f>
         <v>0</v>
       </c>
-      <c r="J79" s="29">
+      <c r="J79" s="28">
         <f>E79+F79+G79+H79</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" s="5"/>
-      <c r="B80" s="30"/>
-      <c r="C80" t="s" s="50">
-        <v>16</v>
-      </c>
-      <c r="D80" s="59"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="36">
+      <c r="B80" s="29"/>
+      <c r="C80" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="D80" s="31"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35">
         <f>E80+F80+G80+H80</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="A81" s="5"/>
-      <c r="B81" s="30"/>
-      <c r="C81" t="s" s="50">
-        <v>17</v>
-      </c>
-      <c r="D81" s="59"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="36">
+      <c r="B81" s="29"/>
+      <c r="C81" t="s" s="44">
+        <v>18</v>
+      </c>
+      <c r="D81" s="31"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="35">
         <f>E81+F81+G81+H81</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" s="5"/>
-      <c r="B82" s="63"/>
-      <c r="C82" t="s" s="52">
-        <v>21</v>
-      </c>
-      <c r="D82" s="69"/>
-      <c r="E82" s="54">
+      <c r="B82" s="45"/>
+      <c r="C82" t="s" s="46">
+        <v>22</v>
+      </c>
+      <c r="D82" s="31"/>
+      <c r="E82" s="32">
         <f>E79+E80-E81</f>
         <v>0</v>
       </c>
-      <c r="F82" s="55">
+      <c r="F82" s="33">
         <f>F79+F80-F81</f>
         <v>0</v>
       </c>
-      <c r="G82" s="55">
+      <c r="G82" s="33">
         <f>G79+G80-G81</f>
         <v>0</v>
       </c>
-      <c r="H82" s="55">
+      <c r="H82" s="33">
         <f>H79+H80-H81</f>
         <v>0</v>
       </c>
-      <c r="I82" s="56">
+      <c r="I82" s="34">
         <f>I79+I80-I81</f>
         <v>0</v>
       </c>
-      <c r="J82" s="57">
+      <c r="J82" s="35">
         <f>E82+F82+G82+H82</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1">
+    <row r="83" ht="13" customHeight="1">
       <c r="A83" s="5"/>
-      <c r="B83" t="s" s="70">
-        <v>22</v>
-      </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="32">
-        <v>20</v>
-      </c>
-      <c r="E83" s="33"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="36">
+      <c r="B83" t="s" s="44">
+        <v>23</v>
+      </c>
+      <c r="C83" s="30"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="35">
         <f>E83+F83+G83+H83</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1">
+    <row r="84" ht="13" customHeight="1">
       <c r="A84" s="5"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="36">
+      <c r="B84" s="50"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="35">
         <f>E84+F84+G84+H84</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1">
+    <row r="85" ht="13" customHeight="1">
       <c r="A85" s="5"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="47">
+      <c r="B85" s="51"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="42">
         <f>E85+F85+G85+H85</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" s="5"/>
-      <c r="B86" s="30"/>
-      <c r="C86" t="s" s="48">
-        <v>23</v>
-      </c>
-      <c r="D86" s="61"/>
-      <c r="E86" s="29">
+      <c r="B86" s="29"/>
+      <c r="C86" t="s" s="43">
+        <v>24</v>
+      </c>
+      <c r="D86" s="24"/>
+      <c r="E86" s="25">
         <f>SUM(E83:E85)</f>
         <v>0</v>
       </c>
-      <c r="F86" s="29">
+      <c r="F86" s="26">
         <f>SUM(F83:F85)</f>
         <v>0</v>
       </c>
-      <c r="G86" s="29">
+      <c r="G86" s="26">
         <f>SUM(G83:G85)</f>
         <v>0</v>
       </c>
@@ -3531,221 +3392,219 @@
         <f>SUM(H83:H85)</f>
         <v>0</v>
       </c>
-      <c r="I86" s="28">
+      <c r="I86" s="27">
         <f>SUM(I83:I85)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="29">
+      <c r="J86" s="28">
         <f>E86+F86+G86+H86</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="A87" s="5"/>
-      <c r="B87" s="30"/>
-      <c r="C87" t="s" s="50">
-        <v>16</v>
-      </c>
-      <c r="D87" s="59"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="36">
+      <c r="B87" s="29"/>
+      <c r="C87" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="D87" s="31"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="35">
         <f>E87+F87+G87+H87</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
       <c r="A88" s="5"/>
-      <c r="B88" s="30"/>
-      <c r="C88" t="s" s="50">
-        <v>17</v>
-      </c>
-      <c r="D88" s="62"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="36">
+      <c r="B88" s="29"/>
+      <c r="C88" t="s" s="44">
+        <v>18</v>
+      </c>
+      <c r="D88" s="31"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="35">
         <f>E88+F88+G88+H88</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" s="5"/>
-      <c r="B89" s="63"/>
-      <c r="C89" t="s" s="52">
-        <v>24</v>
-      </c>
-      <c r="D89" s="64"/>
-      <c r="E89" s="55">
+      <c r="B89" s="45"/>
+      <c r="C89" t="s" s="46">
+        <v>25</v>
+      </c>
+      <c r="D89" s="31"/>
+      <c r="E89" s="32">
         <f>E86+E87-E88</f>
         <v>0</v>
       </c>
-      <c r="F89" s="55">
+      <c r="F89" s="33">
         <f>F86+F87-F88</f>
         <v>0</v>
       </c>
-      <c r="G89" s="55">
+      <c r="G89" s="33">
         <f>G86+G87-G88</f>
         <v>0</v>
       </c>
-      <c r="H89" s="55">
+      <c r="H89" s="33">
         <f>H86+H87-H88</f>
         <v>0</v>
       </c>
-      <c r="I89" s="56">
+      <c r="I89" s="34">
         <f>I86+I87-I88</f>
         <v>0</v>
       </c>
-      <c r="J89" s="57">
+      <c r="J89" s="35">
         <f>E89+F89+G89+H89</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" ht="15" customHeight="1">
+    <row r="90" ht="13" customHeight="1">
       <c r="A90" s="5"/>
-      <c r="B90" t="s" s="72">
-        <v>25</v>
-      </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="73">
-        <v>25</v>
-      </c>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="36">
+      <c r="B90" t="s" s="47">
+        <v>26</v>
+      </c>
+      <c r="C90" s="30"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="35">
         <f>E90+F90+G90+H90</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" ht="15" customHeight="1">
+    <row r="91" ht="13" customHeight="1">
       <c r="A91" s="5"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="36">
+      <c r="B91" s="29"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="35">
         <f>E91+F91+G91+H91</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="15" customHeight="1">
+    <row r="92" ht="13" customHeight="1">
       <c r="A92" s="5"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="36">
+      <c r="B92" s="36"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="35">
         <f>E92+F92+G92+H92</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="15" customHeight="1">
+    <row r="93" ht="13" customHeight="1">
       <c r="A93" s="5"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="36">
+      <c r="B93" s="36"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="35">
         <f>E93+F93+G93+H93</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" ht="15" customHeight="1">
+    <row r="94" ht="13" customHeight="1">
       <c r="A94" s="5"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="36">
+      <c r="B94" s="36"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="35">
         <f>E94+F94+G94+H94</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" ht="15" customHeight="1">
+    <row r="95" ht="13" customHeight="1">
       <c r="A95" s="5"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="36">
+      <c r="B95" s="36"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="35">
         <f>E95+F95+G95+H95</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" ht="15" customHeight="1">
+    <row r="96" ht="13" customHeight="1">
       <c r="A96" s="5"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="36">
+      <c r="B96" s="36"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="35">
         <f>E96+F96+G96+H96</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="1">
+    <row r="97" ht="13" customHeight="1">
       <c r="A97" s="5"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="45"/>
-      <c r="I97" s="46"/>
-      <c r="J97" s="47">
+      <c r="B97" s="36"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="42">
         <f>E97+F97+G97+H97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="A98" s="5"/>
-      <c r="B98" s="30"/>
-      <c r="C98" t="s" s="48">
-        <v>26</v>
-      </c>
-      <c r="D98" s="61"/>
-      <c r="E98" s="29">
+      <c r="B98" s="29"/>
+      <c r="C98" t="s" s="43">
+        <v>27</v>
+      </c>
+      <c r="D98" s="24"/>
+      <c r="E98" s="25">
         <f>SUM(E90:E97)</f>
         <v>0</v>
       </c>
-      <c r="F98" s="29">
+      <c r="F98" s="26">
         <f>SUM(F90:F97)</f>
         <v>0</v>
       </c>
-      <c r="G98" s="29">
+      <c r="G98" s="26">
         <f>SUM(G90:G97)</f>
         <v>0</v>
       </c>
@@ -3753,313 +3612,302 @@
         <f>SUM(H90:H97)</f>
         <v>0</v>
       </c>
-      <c r="I98" s="28">
+      <c r="I98" s="27">
         <f>SUM(I90:I97)</f>
         <v>0</v>
       </c>
-      <c r="J98" s="29">
+      <c r="J98" s="28">
         <f>E98+F98+G98+H98</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="A99" s="5"/>
-      <c r="B99" s="30"/>
-      <c r="C99" t="s" s="50">
-        <v>16</v>
-      </c>
-      <c r="D99" s="59"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="36">
+      <c r="B99" s="29"/>
+      <c r="C99" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="D99" s="31"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="35">
         <f>E99+F99+G99+H99</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="A100" s="5"/>
-      <c r="B100" s="30"/>
-      <c r="C100" t="s" s="50">
-        <v>17</v>
-      </c>
-      <c r="D100" s="59"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="36">
+      <c r="B100" s="29"/>
+      <c r="C100" t="s" s="44">
+        <v>18</v>
+      </c>
+      <c r="D100" s="31"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="35">
         <f>E100+F100+G100+H100</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="A101" s="5"/>
-      <c r="B101" s="63"/>
-      <c r="C101" t="s" s="52">
-        <v>27</v>
-      </c>
-      <c r="D101" s="69"/>
-      <c r="E101" s="54">
+      <c r="B101" s="45"/>
+      <c r="C101" t="s" s="46">
+        <v>28</v>
+      </c>
+      <c r="D101" s="31"/>
+      <c r="E101" s="32">
         <f>E98+E99-E100</f>
         <v>0</v>
       </c>
-      <c r="F101" s="55">
+      <c r="F101" s="33">
         <f>F98+F99-F100</f>
         <v>0</v>
       </c>
-      <c r="G101" s="55">
+      <c r="G101" s="33">
         <f>G98+G99-G100</f>
         <v>0</v>
       </c>
-      <c r="H101" s="55">
+      <c r="H101" s="33">
         <f>H98+H99-H100</f>
         <v>0</v>
       </c>
-      <c r="I101" s="56">
+      <c r="I101" s="34">
         <f>I98+I99-I100</f>
         <v>0</v>
       </c>
-      <c r="J101" s="57">
+      <c r="J101" s="35">
         <f>E101+F101+G101+H101</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" ht="15" customHeight="1">
+    <row r="102" ht="13" customHeight="1">
       <c r="A102" s="5"/>
-      <c r="B102" t="s" s="72">
-        <v>28</v>
-      </c>
-      <c r="C102" s="31"/>
-      <c r="D102" s="32">
-        <v>20</v>
-      </c>
-      <c r="E102" s="33"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="35"/>
-      <c r="J102" s="36">
+      <c r="B102" t="s" s="47">
+        <v>29</v>
+      </c>
+      <c r="C102" s="30"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="35">
         <f>E102+F102+G102+H102</f>
         <v>0</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="1">
+    <row r="103" ht="13" customHeight="1">
       <c r="A103" s="5"/>
-      <c r="B103" s="30"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="32">
-        <v>20</v>
-      </c>
-      <c r="E103" s="33"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="36">
+      <c r="B103" s="29"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="35">
         <f>E103+F103+G103+H103</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" ht="15" customHeight="1">
+    <row r="104" ht="13" customHeight="1">
       <c r="A104" s="5"/>
-      <c r="B104" s="30"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="37">
-        <v>25</v>
-      </c>
-      <c r="E104" s="33"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="35"/>
-      <c r="J104" s="36">
+      <c r="B104" s="29"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="35">
         <f>E104+F104+G104+H104</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105" ht="15" customHeight="1">
+    <row r="105" ht="13" customHeight="1">
       <c r="A105" s="5"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="37">
-        <v>25</v>
-      </c>
-      <c r="E105" s="33"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="35"/>
-      <c r="J105" s="36">
+      <c r="B105" s="29"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="35">
         <f>E105+F105+G105+H105</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1">
+    <row r="106" ht="13" customHeight="1">
       <c r="A106" s="5"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="37">
-        <v>25</v>
-      </c>
-      <c r="E106" s="33"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="35"/>
-      <c r="J106" s="36">
+      <c r="B106" s="29"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="35">
         <f>E106+F106+G106+H106</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" ht="15" customHeight="1">
+    <row r="107" ht="13" customHeight="1">
       <c r="A107" s="5"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="37">
-        <v>25</v>
-      </c>
-      <c r="E107" s="33"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="35"/>
-      <c r="J107" s="36">
+      <c r="B107" s="29"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="35">
         <f>E107+F107+G107+H107</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" ht="15" customHeight="1">
+    <row r="108" ht="13" customHeight="1">
       <c r="A108" s="5"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="35"/>
-      <c r="J108" s="36">
+      <c r="B108" s="29"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="35">
         <f>E108+F108+G108+H108</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" ht="15" customHeight="1">
+    <row r="109" ht="13" customHeight="1">
       <c r="A109" s="5"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="35"/>
-      <c r="J109" s="36">
+      <c r="B109" s="29"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="33"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="35">
         <f>E109+F109+G109+H109</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" ht="15" customHeight="1">
+    <row r="110" ht="13" customHeight="1">
       <c r="A110" s="5"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="34"/>
-      <c r="I110" s="35"/>
-      <c r="J110" s="36">
+      <c r="B110" s="29"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="35">
         <f>E110+F110+G110+H110</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" ht="15" customHeight="1">
+    <row r="111" ht="13" customHeight="1">
       <c r="A111" s="5"/>
-      <c r="B111" s="30"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="75"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="46"/>
-      <c r="J111" s="47">
+      <c r="B111" s="29"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="38"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="41"/>
+      <c r="J111" s="42">
         <f>E111+F111+G111+H111</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="A112" s="5"/>
-      <c r="B112" s="63"/>
-      <c r="C112" t="s" s="76">
-        <v>29</v>
-      </c>
-      <c r="D112" s="77"/>
-      <c r="E112" s="78">
+      <c r="B112" s="45"/>
+      <c r="C112" t="s" s="52">
+        <v>30</v>
+      </c>
+      <c r="D112" s="53"/>
+      <c r="E112" s="28">
         <f>SUM(E102:E111)</f>
         <v>0</v>
       </c>
-      <c r="F112" s="78">
+      <c r="F112" s="28">
         <f>SUM(F102:F111)</f>
         <v>0</v>
       </c>
-      <c r="G112" s="78">
+      <c r="G112" s="28">
         <f>SUM(G102:G111)</f>
         <v>0</v>
       </c>
-      <c r="H112" s="78">
+      <c r="H112" s="28">
         <f>SUM(H102:H111)</f>
         <v>0</v>
       </c>
-      <c r="I112" s="78">
+      <c r="I112" s="28">
         <f>SUM(I102:I111)</f>
         <v>0</v>
       </c>
-      <c r="J112" s="78">
+      <c r="J112" s="28">
         <f>E112+F112+G112+H112</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" ht="28" customHeight="1">
+    <row r="113" ht="22" customHeight="1">
       <c r="A113" s="5"/>
-      <c r="B113" s="43"/>
-      <c r="C113" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="D113" s="80"/>
-      <c r="E113" s="81">
+      <c r="B113" s="54"/>
+      <c r="C113" t="s" s="55">
+        <v>31</v>
+      </c>
+      <c r="D113" s="54"/>
+      <c r="E113" s="56">
         <f>E112+E101+E82+E89+E73+E54</f>
         <v>0</v>
       </c>
-      <c r="F113" s="81">
+      <c r="F113" s="56">
         <f>F112+F101+F82+F89+F73+F54</f>
         <v>0</v>
       </c>
-      <c r="G113" s="81">
+      <c r="G113" s="56">
         <f>G112+G101+G82+G89+G73+G54</f>
         <v>0</v>
       </c>
-      <c r="H113" s="81">
+      <c r="H113" s="56">
         <f>H112+H101+H82+H89+H73+H54</f>
         <v>0</v>
       </c>
-      <c r="I113" s="81">
+      <c r="I113" s="56">
         <f>I112+I101+I82+I89+I73+I54</f>
         <v>0</v>
       </c>
-      <c r="J113" s="81">
+      <c r="J113" s="56">
         <f>J112+J101+J82+J89+J73+J54</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="B102:B112"/>
-    <mergeCell ref="F2:H2"/>
     <mergeCell ref="B5:B54"/>
     <mergeCell ref="B55:B73"/>
     <mergeCell ref="B83:B89"/>
@@ -4067,18 +3915,13 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B74:B82"/>
   </mergeCells>
-  <conditionalFormatting sqref="E5:J85 E86:E97 J86 F87:J97 J98 E99:J113">
+  <conditionalFormatting sqref="E5:J113">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:I86 E98:I98">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan" stopIfTrue="1">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="1" right="0" top="0.14" bottom="0.42" header="0.31" footer="0.31"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="69" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="50" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/app/webroot/excel/kaikake.xlsx
+++ b/app/webroot/excel/kaikake.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazukikawabata/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9538773-C402-2848-83FE-D4DFD59C111B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA529487-6628-EF4E-ADAC-1250EC195E7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="500" windowWidth="20860" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="500" windowWidth="20860" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="０月" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -250,8 +250,23 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,30 +276,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -300,6 +291,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="60">
     <border>
@@ -1129,290 +1132,290 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2621,17 +2624,17 @@
   <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="63" customWidth="1"/>
+    <col min="2" max="2" width="8" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="40" customWidth="1"/>
     <col min="5" max="9" width="16" style="5" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="18" style="5" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" style="5" customWidth="1"/>
     <col min="12" max="16384" width="8.83203125" style="5"/>
   </cols>
@@ -2640,7 +2643,7 @@
       <c r="A1" s="3"/>
       <c r="B1" s="1"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="59"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2650,1938 +2653,1938 @@
     </row>
     <row r="2" spans="1:10" ht="26" customHeight="1" thickBot="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:10" ht="4" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21">
-        <f t="shared" ref="J5:J50" si="0">E5+F5+G5+H5</f>
+      <c r="C5" s="30"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19">
+        <f>E5+F5+G5+H5+I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25">
-        <f t="shared" si="0"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="19">
+        <f t="shared" ref="J6:J69" si="0">E6+F6+G6+H6+I6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="13" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25">
+      <c r="B7" s="100"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25">
+      <c r="B8" s="100"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="13" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25">
+      <c r="B9" s="100"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="13" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25">
+      <c r="B10" s="100"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="13" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25">
+      <c r="B11" s="100"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="13" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25">
+      <c r="B12" s="100"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="13" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25">
+      <c r="B13" s="100"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25">
+      <c r="B14" s="100"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="13" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25">
+      <c r="B15" s="100"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="13" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25">
+      <c r="B16" s="100"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="13" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25">
+      <c r="B17" s="100"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="13" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25">
+      <c r="B18" s="100"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="13" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="88" t="s">
+      <c r="B19" s="100"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25">
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="13" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25">
+      <c r="B20" s="100"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="13" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25">
+      <c r="B21" s="100"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="13" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25">
+      <c r="B22" s="100"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="13" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25">
+      <c r="B23" s="100"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="13" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25">
+      <c r="B24" s="100"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="13" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25">
+      <c r="B25" s="100"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="13" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="91" t="s">
+      <c r="B26" s="100"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25">
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="13" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25">
+      <c r="B27" s="100"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="13" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25">
+      <c r="B28" s="100"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="13" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="25">
+      <c r="B29" s="100"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="13" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="91" t="s">
+      <c r="B30" s="100"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="25">
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="13" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="25">
+      <c r="B31" s="100"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="13" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25">
+      <c r="B32" s="100"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="13" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="25">
+      <c r="B33" s="100"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="13" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="25">
+      <c r="B34" s="100"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="13" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="25">
-        <f t="shared" si="0"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="19">
+        <f>E35+F35+G35+H35+I35</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="13" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="25">
+      <c r="B36" s="100"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="13" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="25">
+      <c r="B37" s="100"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="13" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="25">
+      <c r="B38" s="100"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="13" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="25">
+      <c r="B39" s="100"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="13" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="92" t="s">
+      <c r="B40" s="101"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="25">
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="13" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="25">
+      <c r="B41" s="101"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="13" customHeight="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="25">
+      <c r="B42" s="101"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="13" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="25">
+      <c r="B43" s="101"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="13" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="25">
+      <c r="B44" s="100"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="13" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="25">
+      <c r="B45" s="100"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="13" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="25">
+      <c r="B46" s="100"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="13" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="25">
-        <f t="shared" si="0"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="19">
+        <f>E47+F47+G47+H47+I47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="13" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="25">
-        <f t="shared" si="0"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="19">
+        <f t="shared" ref="J48:J111" si="1">E48+F48+G48+H48+I48</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="13" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="25">
-        <f t="shared" si="0"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="13" customHeight="1" thickBot="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29">
-        <f t="shared" si="0"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="47" t="s">
+      <c r="B51" s="100"/>
+      <c r="C51" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="94"/>
-      <c r="E51" s="18">
-        <f t="shared" ref="E51:J51" si="1">SUM(E5:E50)</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="30">
+      <c r="D51" s="50"/>
+      <c r="E51" s="16">
+        <f t="shared" ref="E51:J51" si="2">SUM(E5:E50)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="74"/>
-      <c r="C52" s="48" t="s">
+      <c r="B52" s="100"/>
+      <c r="C52" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="90"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="25">
-        <f>SUM(E52:H52)</f>
+      <c r="D52" s="46"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="48" t="s">
+      <c r="B53" s="100"/>
+      <c r="C53" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="90"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="25">
-        <f>SUM(E53:H53)</f>
+      <c r="D53" s="46"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="49" t="s">
+      <c r="B54" s="102"/>
+      <c r="C54" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="95"/>
-      <c r="E54" s="31">
-        <f t="shared" ref="E54:J54" si="2">E51+E52-E53</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="34">
-        <f t="shared" si="2"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="84">
+        <f t="shared" ref="E54:J54" si="3">E51+E52-E53</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="87">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="13" customHeight="1" thickTop="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="50"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="35">
-        <f t="shared" ref="J55:J86" si="3">E55+F55+G55+H55</f>
+      <c r="C55" s="33"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="29">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="13" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="25">
-        <f t="shared" si="3"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="25">
-        <f t="shared" si="3"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="13" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="25">
-        <f t="shared" si="3"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="13" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="25">
-        <f t="shared" si="3"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="13" customHeight="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="25">
-        <f t="shared" si="3"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="13" customHeight="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="25">
-        <f t="shared" si="3"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="13" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="25">
-        <f t="shared" si="3"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="13" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="25">
-        <f t="shared" si="3"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="13" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="25">
-        <f t="shared" si="3"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="13" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="25">
-        <f t="shared" si="3"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="13" customHeight="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="25">
-        <f t="shared" si="3"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="13" customHeight="1">
       <c r="A67" s="6"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="25">
-        <f t="shared" si="3"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="13" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="25">
-        <f t="shared" si="3"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="13" customHeight="1" thickBot="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="71"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="93"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="29">
-        <f t="shared" si="3"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="27">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="47" t="s">
+      <c r="B70" s="91"/>
+      <c r="C70" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="94"/>
-      <c r="E70" s="18">
+      <c r="D70" s="50"/>
+      <c r="E70" s="16">
         <f>SUM(E55:E69)</f>
         <v>0</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F70" s="17">
         <f>SUM(F55:F69)</f>
         <v>0</v>
       </c>
-      <c r="G70" s="19">
+      <c r="G70" s="17">
         <f>SUM(G55:G69)</f>
         <v>0</v>
       </c>
-      <c r="H70" s="19">
+      <c r="H70" s="17">
         <f>SUM(H55:H69)</f>
         <v>0</v>
       </c>
-      <c r="I70" s="20">
+      <c r="I70" s="18">
         <f>SUM(I55:I69)</f>
         <v>0</v>
       </c>
-      <c r="J70" s="30">
-        <f t="shared" si="3"/>
+      <c r="J70" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1">
       <c r="A71" s="6"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="48" t="s">
+      <c r="B71" s="91"/>
+      <c r="C71" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="90"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="25">
-        <f t="shared" si="3"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15" customHeight="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="48" t="s">
+      <c r="B72" s="91"/>
+      <c r="C72" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="90"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="25">
-        <f t="shared" si="3"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A73" s="6"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="49" t="s">
+      <c r="B73" s="92"/>
+      <c r="C73" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="95"/>
-      <c r="E73" s="31">
+      <c r="D73" s="83"/>
+      <c r="E73" s="84">
         <f>E70+E71-E72</f>
         <v>0</v>
       </c>
-      <c r="F73" s="32">
+      <c r="F73" s="85">
         <f>F70+F71-F72</f>
         <v>0</v>
       </c>
-      <c r="G73" s="32">
+      <c r="G73" s="85">
         <f>G70+G71-G72</f>
         <v>0</v>
       </c>
-      <c r="H73" s="32">
+      <c r="H73" s="85">
         <f>H70+H71-H72</f>
         <v>0</v>
       </c>
-      <c r="I73" s="33">
+      <c r="I73" s="86">
         <f>I70+I71-I72</f>
         <v>0</v>
       </c>
-      <c r="J73" s="34">
-        <f t="shared" si="3"/>
+      <c r="J73" s="87">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="13" customHeight="1" thickTop="1">
       <c r="A74" s="6"/>
-      <c r="B74" s="84" t="s">
+      <c r="B74" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="50"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="35">
-        <f t="shared" si="3"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="29">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="13" customHeight="1">
       <c r="A75" s="6"/>
-      <c r="B75" s="85"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="25">
-        <f t="shared" si="3"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="13" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="85"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="98"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="25">
-        <f t="shared" si="3"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="13" customHeight="1">
       <c r="A77" s="6"/>
-      <c r="B77" s="85"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="25">
-        <f t="shared" si="3"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="13" customHeight="1" thickBot="1">
       <c r="A78" s="6"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="93"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="29">
-        <f t="shared" si="3"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="27">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1">
       <c r="A79" s="6"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="47" t="s">
+      <c r="B79" s="91"/>
+      <c r="C79" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="94"/>
-      <c r="E79" s="18">
+      <c r="D79" s="50"/>
+      <c r="E79" s="16">
         <f>SUM(E74:E78)</f>
         <v>0</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F79" s="17">
         <f>SUM(F74:F78)</f>
         <v>0</v>
       </c>
-      <c r="G79" s="19">
+      <c r="G79" s="17">
         <f>SUM(G74:G78)</f>
         <v>0</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H79" s="17">
         <f>SUM(H74:H78)</f>
         <v>0</v>
       </c>
-      <c r="I79" s="20">
+      <c r="I79" s="18">
         <f>SUM(I74:I78)</f>
         <v>0</v>
       </c>
-      <c r="J79" s="30">
-        <f t="shared" si="3"/>
+      <c r="J79" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15" customHeight="1">
       <c r="A80" s="6"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="48" t="s">
+      <c r="B80" s="91"/>
+      <c r="C80" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="90"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="25">
-        <f t="shared" si="3"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15" customHeight="1">
       <c r="A81" s="6"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="48" t="s">
+      <c r="B81" s="91"/>
+      <c r="C81" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="90"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="25">
-        <f t="shared" si="3"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A82" s="6"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="49" t="s">
+      <c r="B82" s="92"/>
+      <c r="C82" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="95"/>
-      <c r="E82" s="31">
+      <c r="D82" s="83"/>
+      <c r="E82" s="84">
         <f>E79+E80-E81</f>
         <v>0</v>
       </c>
-      <c r="F82" s="32">
+      <c r="F82" s="85">
         <f>F79+F80-F81</f>
         <v>0</v>
       </c>
-      <c r="G82" s="32">
+      <c r="G82" s="85">
         <f>G79+G80-G81</f>
         <v>0</v>
       </c>
-      <c r="H82" s="32">
+      <c r="H82" s="85">
         <f>H79+H80-H81</f>
         <v>0</v>
       </c>
-      <c r="I82" s="33">
+      <c r="I82" s="86">
         <f>I79+I80-I81</f>
         <v>0</v>
       </c>
-      <c r="J82" s="34">
-        <f t="shared" si="3"/>
+      <c r="J82" s="87">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="13" customHeight="1" thickTop="1">
       <c r="A83" s="6"/>
-      <c r="B83" s="79" t="s">
+      <c r="B83" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="50"/>
-      <c r="D83" s="96"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="35">
-        <f t="shared" si="3"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="29">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="13" customHeight="1">
       <c r="A84" s="6"/>
-      <c r="B84" s="80"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="90"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="25">
-        <f t="shared" si="3"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="13" customHeight="1" thickBot="1">
       <c r="A85" s="6"/>
-      <c r="B85" s="81"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="93"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="29">
-        <f t="shared" si="3"/>
+      <c r="B85" s="97"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="27">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15" customHeight="1">
       <c r="A86" s="6"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="51" t="s">
+      <c r="B86" s="91"/>
+      <c r="C86" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="99"/>
-      <c r="E86" s="18">
+      <c r="D86" s="54"/>
+      <c r="E86" s="16">
         <f>SUM(E83:E85)</f>
         <v>0</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F86" s="17">
         <f>SUM(F83:F85)</f>
         <v>0</v>
       </c>
-      <c r="G86" s="19">
+      <c r="G86" s="17">
         <f>SUM(G83:G85)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="19">
+      <c r="H86" s="17">
         <f>SUM(H83:H85)</f>
         <v>0</v>
       </c>
-      <c r="I86" s="20">
+      <c r="I86" s="18">
         <f>SUM(I83:I85)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="30">
-        <f t="shared" si="3"/>
+      <c r="J86" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15" customHeight="1">
       <c r="A87" s="6"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="52" t="s">
+      <c r="B87" s="91"/>
+      <c r="C87" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="100"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="25">
-        <f t="shared" ref="J87:J112" si="4">E87+F87+G87+H87</f>
+      <c r="D87" s="55"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15" customHeight="1">
       <c r="A88" s="6"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="53" t="s">
+      <c r="B88" s="91"/>
+      <c r="C88" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="98"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="25">
-        <f t="shared" si="4"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A89" s="6"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="49" t="s">
+      <c r="B89" s="92"/>
+      <c r="C89" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="95"/>
-      <c r="E89" s="31">
+      <c r="D89" s="83"/>
+      <c r="E89" s="84">
         <f>E86+E87-E88</f>
         <v>0</v>
       </c>
-      <c r="F89" s="32">
+      <c r="F89" s="85">
         <f>F86+F87-F88</f>
         <v>0</v>
       </c>
-      <c r="G89" s="32">
+      <c r="G89" s="85">
         <f>G86+G87-G88</f>
         <v>0</v>
       </c>
-      <c r="H89" s="32">
+      <c r="H89" s="85">
         <f>H86+H87-H88</f>
         <v>0</v>
       </c>
-      <c r="I89" s="33">
+      <c r="I89" s="86">
         <f>I86+I87-I88</f>
         <v>0</v>
       </c>
-      <c r="J89" s="34">
-        <f t="shared" si="4"/>
+      <c r="J89" s="87">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="13" customHeight="1" thickTop="1">
       <c r="A90" s="6"/>
-      <c r="B90" s="70" t="s">
+      <c r="B90" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C90" s="44"/>
-      <c r="D90" s="101"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="21">
-        <f t="shared" si="4"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="13" customHeight="1">
       <c r="A91" s="6"/>
-      <c r="B91" s="71"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="25">
-        <f t="shared" si="4"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="13" customHeight="1">
       <c r="A92" s="6"/>
-      <c r="B92" s="78"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="90"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="25">
-        <f t="shared" si="4"/>
+      <c r="B92" s="94"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="13" customHeight="1">
       <c r="A93" s="6"/>
-      <c r="B93" s="78"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="25">
-        <f t="shared" si="4"/>
+      <c r="B93" s="94"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="13" customHeight="1">
       <c r="A94" s="6"/>
-      <c r="B94" s="78"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="90"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="25">
-        <f t="shared" si="4"/>
+      <c r="B94" s="94"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="13" customHeight="1">
       <c r="A95" s="6"/>
-      <c r="B95" s="78"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="91" t="s">
+      <c r="B95" s="94"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="25">
-        <f t="shared" si="4"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="13" customHeight="1">
       <c r="A96" s="6"/>
-      <c r="B96" s="78"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="90"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="25">
-        <f t="shared" si="4"/>
+      <c r="B96" s="94"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="13" customHeight="1" thickBot="1">
       <c r="A97" s="6"/>
-      <c r="B97" s="78"/>
-      <c r="C97" s="46"/>
-      <c r="D97" s="102"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="29">
-        <f t="shared" si="4"/>
+      <c r="B97" s="94"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="27">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" customHeight="1">
       <c r="A98" s="6"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="47" t="s">
+      <c r="B98" s="91"/>
+      <c r="C98" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D98" s="98"/>
-      <c r="E98" s="18">
+      <c r="D98" s="53"/>
+      <c r="E98" s="16">
         <f>SUM(E90:E97)</f>
         <v>0</v>
       </c>
-      <c r="F98" s="19">
+      <c r="F98" s="17">
         <f>SUM(F90:F97)</f>
         <v>0</v>
       </c>
-      <c r="G98" s="19">
+      <c r="G98" s="17">
         <f>SUM(G90:G97)</f>
         <v>0</v>
       </c>
-      <c r="H98" s="19">
+      <c r="H98" s="17">
         <f>SUM(H90:H97)</f>
         <v>0</v>
       </c>
-      <c r="I98" s="20">
+      <c r="I98" s="18">
         <f>SUM(I90:I97)</f>
         <v>0</v>
       </c>
-      <c r="J98" s="30">
-        <f t="shared" si="4"/>
+      <c r="J98" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15" customHeight="1">
       <c r="A99" s="6"/>
-      <c r="B99" s="71"/>
-      <c r="C99" s="48" t="s">
+      <c r="B99" s="91"/>
+      <c r="C99" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D99" s="90"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="25">
-        <f t="shared" si="4"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15" customHeight="1">
       <c r="A100" s="6"/>
-      <c r="B100" s="71"/>
-      <c r="C100" s="48" t="s">
+      <c r="B100" s="91"/>
+      <c r="C100" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="90"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="25">
-        <f t="shared" si="4"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A101" s="6"/>
-      <c r="B101" s="72"/>
-      <c r="C101" s="49" t="s">
+      <c r="B101" s="92"/>
+      <c r="C101" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D101" s="95"/>
-      <c r="E101" s="31">
+      <c r="D101" s="83"/>
+      <c r="E101" s="84">
         <f>E98+E99-E100</f>
         <v>0</v>
       </c>
-      <c r="F101" s="32">
+      <c r="F101" s="85">
         <f>F98+F99-F100</f>
         <v>0</v>
       </c>
-      <c r="G101" s="32">
+      <c r="G101" s="85">
         <f>G98+G99-G100</f>
         <v>0</v>
       </c>
-      <c r="H101" s="32">
+      <c r="H101" s="85">
         <f>H98+H99-H100</f>
         <v>0</v>
       </c>
-      <c r="I101" s="33">
+      <c r="I101" s="86">
         <f>I98+I99-I100</f>
         <v>0</v>
       </c>
-      <c r="J101" s="34">
-        <f t="shared" si="4"/>
+      <c r="J101" s="87">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="13" customHeight="1" thickTop="1">
       <c r="A102" s="6"/>
-      <c r="B102" s="70" t="s">
+      <c r="B102" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="C102" s="44"/>
-      <c r="D102" s="91" t="s">
+      <c r="C102" s="30"/>
+      <c r="D102" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E102" s="18"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="21">
-        <f t="shared" si="4"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="13" customHeight="1">
       <c r="A103" s="6"/>
-      <c r="B103" s="71"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="89"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="25">
-        <f t="shared" si="4"/>
+      <c r="B103" s="91"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="13" customHeight="1">
       <c r="A104" s="6"/>
-      <c r="B104" s="71"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="25">
-        <f t="shared" si="4"/>
+      <c r="B104" s="91"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="13" customHeight="1">
       <c r="A105" s="6"/>
-      <c r="B105" s="71"/>
-      <c r="C105" s="45"/>
-      <c r="D105" s="86"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="25">
-        <f t="shared" si="4"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="13" customHeight="1">
       <c r="A106" s="6"/>
-      <c r="B106" s="71"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="86"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="23"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="25">
-        <f t="shared" si="4"/>
+      <c r="B106" s="91"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="22"/>
+      <c r="J106" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="13" customHeight="1">
       <c r="A107" s="6"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="86"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="25">
-        <f t="shared" si="4"/>
+      <c r="B107" s="91"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="13" customHeight="1">
       <c r="A108" s="6"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="87"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="25">
-        <f t="shared" si="4"/>
+      <c r="B108" s="91"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="13" customHeight="1">
       <c r="A109" s="6"/>
-      <c r="B109" s="71"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="87"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="23"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="25">
-        <f t="shared" si="4"/>
+      <c r="B109" s="91"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="13" customHeight="1">
       <c r="A110" s="6"/>
-      <c r="B110" s="71"/>
-      <c r="C110" s="45"/>
-      <c r="D110" s="87"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="25">
-        <f t="shared" si="4"/>
+      <c r="B110" s="91"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="13" customHeight="1" thickBot="1">
       <c r="A111" s="6"/>
-      <c r="B111" s="71"/>
-      <c r="C111" s="46"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="29">
-        <f t="shared" si="4"/>
+      <c r="B111" s="91"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="27">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A112" s="6"/>
-      <c r="B112" s="72"/>
-      <c r="C112" s="54" t="s">
+      <c r="B112" s="92"/>
+      <c r="C112" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D112" s="8"/>
-      <c r="E112" s="36">
+      <c r="D112" s="71"/>
+      <c r="E112" s="72">
         <f>SUM(E102:E111)</f>
         <v>0</v>
       </c>
-      <c r="F112" s="37">
+      <c r="F112" s="73">
         <f>SUM(F102:F111)</f>
         <v>0</v>
       </c>
-      <c r="G112" s="37">
+      <c r="G112" s="73">
         <f>SUM(G102:G111)</f>
         <v>0</v>
       </c>
-      <c r="H112" s="37">
+      <c r="H112" s="73">
         <f>SUM(H102:H111)</f>
         <v>0</v>
       </c>
-      <c r="I112" s="38">
+      <c r="I112" s="74">
         <f>SUM(I102:I111)</f>
         <v>0</v>
       </c>
-      <c r="J112" s="39">
-        <f t="shared" si="4"/>
+      <c r="J112" s="75">
+        <f t="shared" ref="J112:J113" si="4">E112+F112+G112+H112+I112</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="22" customHeight="1" thickTop="1" thickBot="1">
       <c r="A113" s="6"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="55" t="s">
+      <c r="B113" s="8"/>
+      <c r="C113" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="D113" s="62"/>
-      <c r="E113" s="40">
+      <c r="D113" s="77"/>
+      <c r="E113" s="78">
         <f t="shared" ref="E113:J113" si="5">E112+E101+E82+E89+E73+E54</f>
         <v>0</v>
       </c>
-      <c r="F113" s="41">
+      <c r="F113" s="79">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G113" s="41">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H113" s="41">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I113" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="43">
-        <f t="shared" si="5"/>
+      <c r="G113" s="79">
+        <f>G112+G101+G82+G89+G73+G54</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="79">
+        <f>H112+H101+H82+H89+H73+H54</f>
+        <v>0</v>
+      </c>
+      <c r="I113" s="80">
+        <f>I112+I101+I82+I89+I73+I54</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="81">
+        <f>E113+F113+G113+H113+I113</f>
         <v>0</v>
       </c>
     </row>
@@ -4598,13 +4601,13 @@
     <mergeCell ref="B74:B82"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
-  <conditionalFormatting sqref="E5:J85 E86:E97 J86 F87:J97 J98 E99:J113">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E86:E97 J86 F87:J97 J98 E99:J113 E5:J85">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:I86 E98:I98">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
